--- a/CompareSelectivityPredictions/OUTPUT/SelWin_SemiSel_EvaluationResults_NewThreshold.xlsx
+++ b/CompareSelectivityPredictions/OUTPUT/SelWin_SemiSel_EvaluationResults_NewThreshold.xlsx
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>474.4</v>
+        <v>474.2</v>
       </c>
       <c r="D2" t="n">
-        <v>1.140175425099138</v>
+        <v>1.483239697419133</v>
       </c>
       <c r="E2" t="n">
-        <v>42.6</v>
+        <v>42.8</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8944271909999159</v>
+        <v>0.8366600265340756</v>
       </c>
       <c r="G2" t="n">
-        <v>204.4</v>
+        <v>204</v>
       </c>
       <c r="H2" t="n">
-        <v>2.966479394838265</v>
+        <v>3.082207001484488</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>640.2</v>
+        <v>642.4</v>
       </c>
       <c r="D3" t="n">
-        <v>5.761944116355173</v>
+        <v>4.774934554525329</v>
       </c>
       <c r="E3" t="n">
-        <v>1800</v>
+        <v>1799.2</v>
       </c>
       <c r="F3" t="n">
-        <v>3.535533905932738</v>
+        <v>1.788854381999832</v>
       </c>
       <c r="G3" t="n">
-        <v>1499</v>
+        <v>1499.2</v>
       </c>
       <c r="H3" t="n">
-        <v>1.870828693386971</v>
+        <v>2.049390153191919</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>737.8</v>
+        <v>735.6</v>
       </c>
       <c r="D4" t="n">
-        <v>5.761944116355173</v>
+        <v>4.774934554525329</v>
       </c>
       <c r="E4" t="n">
-        <v>49</v>
+        <v>49.8</v>
       </c>
       <c r="F4" t="n">
-        <v>3.535533905932738</v>
+        <v>1.788854381999832</v>
       </c>
       <c r="G4" t="n">
-        <v>144</v>
+        <v>143.8</v>
       </c>
       <c r="H4" t="n">
-        <v>1.870828693386971</v>
+        <v>2.04939015319192</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>57.6</v>
+        <v>57.8</v>
       </c>
       <c r="D5" t="n">
-        <v>1.140175425099138</v>
+        <v>1.483239697419132</v>
       </c>
       <c r="E5" t="n">
-        <v>18.4</v>
+        <v>18.2</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8944271909999159</v>
+        <v>0.8366600265340756</v>
       </c>
       <c r="G5" t="n">
-        <v>62.6</v>
+        <v>63</v>
       </c>
       <c r="H5" t="n">
-        <v>2.966479394838265</v>
+        <v>3.082207001484488</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.5835602094240837</v>
+        <v>0.584607329842932</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002527228981392054</v>
+        <v>0.002177658046396377</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9647120418848167</v>
+        <v>0.9643979057591624</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002047916985927532</v>
+        <v>0.001110638923329648</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8918324607329844</v>
+        <v>0.8917277486910994</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001462224088352736</v>
+        <v>0.001072979137796811</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.3913605397376126</v>
+        <v>0.3919692995358389</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001404256264116805</v>
+        <v>0.001297421878058179</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4655820342516914</v>
+        <v>0.4623075219605817</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01992649878963904</v>
+        <v>0.01097170858959107</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5866742642642115</v>
+        <v>0.5865397843874833</v>
       </c>
       <c r="H7" t="n">
-        <v>0.003670155839156653</v>
+        <v>0.002531775246598688</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8917293233082706</v>
+        <v>0.8913533834586467</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0021431868892841</v>
+        <v>0.002788044544020954</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6983606557377049</v>
+        <v>0.701639344262295</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01466274083606421</v>
+        <v>0.01371573813990289</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7655430711610487</v>
+        <v>0.7640449438202247</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0111104097184954</v>
+        <v>0.01154384644750748</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.46456</v>
+        <v>0.4661799999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.004180071769718791</v>
+        <v>0.003462946722085107</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9734999999999999</v>
+        <v>0.97306</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001923538406167135</v>
+        <v>0.0009423375191511655</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9123599999999999</v>
+        <v>0.9125</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001163185281887633</v>
+        <v>0.001268857754044948</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5439772226326418</v>
+        <v>0.5444956982764697</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0009877779460749946</v>
+        <v>0.001182113681317084</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5585507565379482</v>
+        <v>0.5573265889198886</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01550882001254492</v>
+        <v>0.009979463176978818</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6642604304895613</v>
+        <v>0.6636029316249337</v>
       </c>
       <c r="H10" t="n">
-        <v>0.005279405927407914</v>
+        <v>0.004669633687385368</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.5803952376312503</v>
+        <v>0.5813584371111691</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002051439077973075</v>
+        <v>0.001794544981538362</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7700859527851127</v>
+        <v>0.7693898165377953</v>
       </c>
       <c r="F11" t="n">
-        <v>0.008222987033825062</v>
+        <v>0.005233354829699515</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7998954674567882</v>
+        <v>0.799541536725579</v>
       </c>
       <c r="H11" t="n">
-        <v>0.002984562062850198</v>
+        <v>0.002562018677842908</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.678157840173729</v>
+        <v>0.6787681285943451</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001303795621674262</v>
+        <v>0.001522895733545247</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8359299222441905</v>
+        <v>0.8373529333534299</v>
       </c>
       <c r="F12" t="n">
-        <v>0.007687399545240996</v>
+        <v>0.006970960139799561</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8389492592567264</v>
+        <v>0.8382610598589864</v>
       </c>
       <c r="H12" t="n">
-        <v>0.005349760310508386</v>
+        <v>0.005318844717543391</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3317186023399497</v>
+        <v>0.3326124903371339</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001871969055758738</v>
+        <v>0.002618690233498633</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5531125849070719</v>
+        <v>0.5523982528956844</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01705554412855205</v>
+        <v>0.01156164934712615</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6087091083829143</v>
+        <v>0.6078807532269546</v>
       </c>
       <c r="H13" t="n">
-        <v>0.007338462519521603</v>
+        <v>0.006598448367144255</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9174599999999999</v>
+        <v>0.91744</v>
       </c>
       <c r="D14" t="n">
-        <v>0.001006479011206884</v>
+        <v>0.001715517414659502</v>
       </c>
       <c r="E14" t="n">
-        <v>0.98986</v>
+        <v>0.9899800000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0004827007354458762</v>
+        <v>0.0004438468204234328</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9599</v>
+        <v>0.95968</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001820714145603324</v>
+        <v>0.001874033084019597</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.678157840173729</v>
+        <v>0.6787681285943451</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001303795621674266</v>
+        <v>0.001522895733545234</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8359299222441903</v>
+        <v>0.8373529333534299</v>
       </c>
       <c r="F15" t="n">
-        <v>0.007687399545241031</v>
+        <v>0.006970960139799582</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8389492592567264</v>
+        <v>0.8382610598589864</v>
       </c>
       <c r="H15" t="n">
-        <v>0.005349760310508414</v>
+        <v>0.005318844717543372</v>
       </c>
     </row>
   </sheetData>
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>454</v>
+        <v>454.8</v>
       </c>
       <c r="D2" t="n">
-        <v>6.324555320336759</v>
+        <v>6.220932405998316</v>
       </c>
       <c r="E2" t="n">
         <v>47.6</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8944271909999159</v>
+        <v>1.673320053068151</v>
       </c>
       <c r="G2" t="n">
-        <v>219.8</v>
+        <v>218.2</v>
       </c>
       <c r="H2" t="n">
-        <v>4.764451699828638</v>
+        <v>2.949576240750525</v>
       </c>
     </row>
     <row r="3">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>749.4</v>
+        <v>748</v>
       </c>
       <c r="D3" t="n">
-        <v>6.655824516917495</v>
+        <v>5.049752469181039</v>
       </c>
       <c r="E3" t="n">
-        <v>1756.2</v>
+        <v>1756.4</v>
       </c>
       <c r="F3" t="n">
-        <v>4.324349662087931</v>
+        <v>0.8944271909999159</v>
       </c>
       <c r="G3" t="n">
-        <v>1455.8</v>
+        <v>1455.4</v>
       </c>
       <c r="H3" t="n">
-        <v>8.700574693662482</v>
+        <v>3.781534080237808</v>
       </c>
     </row>
     <row r="4">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>628.6</v>
+        <v>630</v>
       </c>
       <c r="D4" t="n">
-        <v>6.655824516917495</v>
+        <v>5.049752469181039</v>
       </c>
       <c r="E4" t="n">
-        <v>92.8</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>4.324349662087931</v>
+        <v>0.8944271909999159</v>
       </c>
       <c r="G4" t="n">
-        <v>187.2</v>
+        <v>187.6</v>
       </c>
       <c r="H4" t="n">
-        <v>8.700574693662482</v>
+        <v>3.781534080237807</v>
       </c>
     </row>
     <row r="5">
@@ -1017,22 +1017,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>78</v>
+        <v>77.2</v>
       </c>
       <c r="D5" t="n">
-        <v>6.324555320336759</v>
+        <v>6.220932405998316</v>
       </c>
       <c r="E5" t="n">
         <v>13.4</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8944271909999159</v>
+        <v>1.673320053068151</v>
       </c>
       <c r="G5" t="n">
-        <v>47.2</v>
+        <v>48.8</v>
       </c>
       <c r="H5" t="n">
-        <v>4.764451699828638</v>
+        <v>2.949576240750525</v>
       </c>
     </row>
     <row r="6">
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6300523560209423</v>
+        <v>0.629738219895288</v>
       </c>
       <c r="D6" t="n">
-        <v>0.003875760319020275</v>
+        <v>0.004570293789067026</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9443979057591625</v>
+        <v>0.9445026178010473</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002548829621913749</v>
+        <v>0.001227857528749587</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8772774869109947</v>
+        <v>0.8762303664921467</v>
       </c>
       <c r="H6" t="n">
-        <v>0.004342710231063397</v>
+        <v>0.001680293878102742</v>
       </c>
     </row>
     <row r="7">
@@ -1073,22 +1073,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4193557730893015</v>
+        <v>0.4192403726107842</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00347648806402153</v>
+        <v>0.004166592481090802</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3392918255571044</v>
+        <v>0.3394625787410246</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01307226067730289</v>
+        <v>0.009457390287034486</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5401994540371113</v>
+        <v>0.5377238479859845</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0107156222885835</v>
+        <v>0.004134919551894623</v>
       </c>
     </row>
     <row r="8">
@@ -1101,22 +1101,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8533834586466165</v>
+        <v>0.8548872180451129</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01188826188033224</v>
+        <v>0.01169348196616227</v>
       </c>
       <c r="E8" t="n">
         <v>0.7803278688524591</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01466274083606421</v>
+        <v>0.02743147627980574</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8232209737827716</v>
+        <v>0.8172284644194757</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01784438838887131</v>
+        <v>0.01104710202528289</v>
       </c>
     </row>
     <row r="9">
@@ -1129,22 +1129,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.54382</v>
+        <v>0.5428200000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.004840144625938374</v>
+        <v>0.003643761792433742</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9498</v>
+        <v>0.9499000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002347338918861116</v>
+        <v>0.0004472135954999645</v>
       </c>
       <c r="G9" t="n">
-        <v>0.88604</v>
+        <v>0.8858200000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0.005273803181765498</v>
+        <v>0.002298260211551338</v>
       </c>
     </row>
     <row r="10">
@@ -1157,22 +1157,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.562354231364609</v>
+        <v>0.5625816949459983</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004753086906386767</v>
+        <v>0.005471648021691222</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4728833371370206</v>
+        <v>0.4731033622375213</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01328552785139961</v>
+        <v>0.01268903731015509</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6522395173971647</v>
+        <v>0.6486203720128005</v>
       </c>
       <c r="H10" t="n">
-        <v>0.009112771848003109</v>
+        <v>0.004328889203640118</v>
       </c>
     </row>
     <row r="11">
@@ -1185,22 +1185,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6209760590107247</v>
+        <v>0.6207967253058244</v>
       </c>
       <c r="D11" t="n">
-        <v>0.003579151901408855</v>
+        <v>0.004290369662477723</v>
       </c>
       <c r="E11" t="n">
-        <v>0.721766924455032</v>
+        <v>0.7219060017402312</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00724099853841209</v>
+        <v>0.006625708602682297</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7888635702177104</v>
+        <v>0.7867526587152766</v>
       </c>
       <c r="H11" t="n">
-        <v>0.005647844319654209</v>
+        <v>0.002525725883987786</v>
       </c>
     </row>
     <row r="12">
@@ -1213,22 +1213,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.6986075493523358</v>
+        <v>0.6988514464681297</v>
       </c>
       <c r="D12" t="n">
-        <v>0.005577184932066606</v>
+        <v>0.006452429674276499</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8650692886717677</v>
+        <v>0.8651233719600315</v>
       </c>
       <c r="F12" t="n">
-        <v>0.008026571443992691</v>
+        <v>0.01387052184880216</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8546415276704484</v>
+        <v>0.8515235444434566</v>
       </c>
       <c r="H12" t="n">
-        <v>0.008351496241586919</v>
+        <v>0.004959471208656299</v>
       </c>
     </row>
     <row r="13">
@@ -1241,22 +1241,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3593721343166001</v>
+        <v>0.3599160459415268</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01034006133648498</v>
+        <v>0.01186666891513797</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4921073471274365</v>
+        <v>0.4922999767323189</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01483711443313944</v>
+        <v>0.01701431588437788</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6007155565579503</v>
+        <v>0.5960131933542766</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01257804747578066</v>
+        <v>0.006389697331816671</v>
       </c>
     </row>
     <row r="14">
@@ -1269,22 +1269,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.90578</v>
+        <v>0.9064599999999998</v>
       </c>
       <c r="D14" t="n">
-        <v>0.006577005397595466</v>
+        <v>0.006946437936093577</v>
       </c>
       <c r="E14" t="n">
         <v>0.99244</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0004979959839195513</v>
+        <v>0.0009235799911215005</v>
       </c>
       <c r="G14" t="n">
-        <v>0.96858</v>
+        <v>0.96754</v>
       </c>
       <c r="H14" t="n">
-        <v>0.003016123339653094</v>
+        <v>0.001854184456843496</v>
       </c>
     </row>
     <row r="15">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6986075493523358</v>
+        <v>0.6988514464681297</v>
       </c>
       <c r="D15" t="n">
-        <v>0.005577184932066606</v>
+        <v>0.00645242967427656</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8650692886717677</v>
+        <v>0.8651233719600316</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00802657144399267</v>
+        <v>0.01387052184880211</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8546415276704484</v>
+        <v>0.8515235444434566</v>
       </c>
       <c r="H15" t="n">
-        <v>0.008351496241586886</v>
+        <v>0.004959471208656299</v>
       </c>
     </row>
   </sheetData>
@@ -1381,22 +1381,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>457.6</v>
+        <v>460</v>
       </c>
       <c r="D2" t="n">
-        <v>2.073644135332772</v>
+        <v>1.224744871391589</v>
       </c>
       <c r="E2" t="n">
-        <v>46.8</v>
+        <v>47</v>
       </c>
       <c r="F2" t="n">
-        <v>1.483239697419132</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="G2" t="n">
-        <v>220.4</v>
+        <v>222.4</v>
       </c>
       <c r="H2" t="n">
-        <v>2.607680962081059</v>
+        <v>1.51657508881031</v>
       </c>
     </row>
     <row r="3">
@@ -1409,22 +1409,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>733.2</v>
+        <v>734.4</v>
       </c>
       <c r="D3" t="n">
-        <v>5.495452665613635</v>
+        <v>7.436396977031282</v>
       </c>
       <c r="E3" t="n">
-        <v>1756.2</v>
+        <v>1761.2</v>
       </c>
       <c r="F3" t="n">
-        <v>4.711687595755899</v>
+        <v>1.643167672515498</v>
       </c>
       <c r="G3" t="n">
-        <v>1462.8</v>
+        <v>1466.6</v>
       </c>
       <c r="H3" t="n">
-        <v>1.095445115010332</v>
+        <v>5.683308895353129</v>
       </c>
     </row>
     <row r="4">
@@ -1437,22 +1437,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>644.8</v>
+        <v>643.6</v>
       </c>
       <c r="D4" t="n">
-        <v>5.495452665613635</v>
+        <v>7.436396977031282</v>
       </c>
       <c r="E4" t="n">
-        <v>92.8</v>
+        <v>87.8</v>
       </c>
       <c r="F4" t="n">
-        <v>4.711687595755898</v>
+        <v>1.643167672515498</v>
       </c>
       <c r="G4" t="n">
-        <v>180.2</v>
+        <v>176.4</v>
       </c>
       <c r="H4" t="n">
-        <v>1.095445115010332</v>
+        <v>5.683308895353129</v>
       </c>
     </row>
     <row r="5">
@@ -1465,22 +1465,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>74.40000000000001</v>
+        <v>72</v>
       </c>
       <c r="D5" t="n">
-        <v>2.073644135332772</v>
+        <v>1.224744871391589</v>
       </c>
       <c r="E5" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="F5" t="n">
-        <v>1.483239697419133</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="G5" t="n">
-        <v>46.6</v>
+        <v>44.6</v>
       </c>
       <c r="H5" t="n">
-        <v>2.607680962081059</v>
+        <v>1.51657508881031</v>
       </c>
     </row>
     <row r="6">
@@ -1493,22 +1493,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6234554973821991</v>
+        <v>0.6253403141361257</v>
       </c>
       <c r="D6" t="n">
-        <v>0.003214676739897134</v>
+        <v>0.003786321409793644</v>
       </c>
       <c r="E6" t="n">
-        <v>0.943979057591623</v>
+        <v>0.9467015706806283</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003163101040208007</v>
+        <v>0.0009365729748690148</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8812565445026179</v>
+        <v>0.8842931937172777</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001452820620472433</v>
+        <v>0.003372800713802389</v>
       </c>
     </row>
     <row r="7">
@@ -1521,22 +1521,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4151010858119507</v>
+        <v>0.4168319208835495</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00247017847684709</v>
+        <v>0.002703512951269781</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3355667880039003</v>
+        <v>0.3486925213202586</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01766119676024765</v>
+        <v>0.005497936755810126</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5501627425345952</v>
+        <v>0.5577573342819273</v>
       </c>
       <c r="H7" t="n">
-        <v>0.003235010720781178</v>
+        <v>0.008800924765552378</v>
       </c>
     </row>
     <row r="8">
@@ -1549,22 +1549,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8601503759398496</v>
+        <v>0.8646616541353384</v>
       </c>
       <c r="D8" t="n">
-        <v>0.003897827322054085</v>
+        <v>0.002302152013893958</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7672131147540983</v>
+        <v>0.7704918032786885</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02431540487572348</v>
+        <v>0.01159191444568112</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8254681647940074</v>
+        <v>0.8329588014981274</v>
       </c>
       <c r="H8" t="n">
-        <v>0.009766595363599497</v>
+        <v>0.00568005651239818</v>
       </c>
     </row>
     <row r="9">
@@ -1577,22 +1577,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.5320600000000001</v>
+        <v>0.5329400000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.003973411632338151</v>
+        <v>0.005423375332760941</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9498</v>
+        <v>0.95252</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00254165300542777</v>
+        <v>0.0008642916174532682</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8903000000000001</v>
+        <v>0.89262</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0006855654600401058</v>
+        <v>0.003454996382053115</v>
       </c>
     </row>
     <row r="10">
@@ -1605,22 +1605,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.559964460596392</v>
+        <v>0.562492744802057</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002503316004607011</v>
+        <v>0.002240892643661918</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4668649961097094</v>
+        <v>0.4800933091088531</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01918682858934283</v>
+        <v>0.006100364463694246</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6602604314218702</v>
+        <v>0.6681062131758739</v>
       </c>
       <c r="H10" t="n">
-        <v>0.004747301461140724</v>
+        <v>0.006670602773064101</v>
       </c>
     </row>
     <row r="11">
@@ -1633,22 +1633,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6154477145562728</v>
+        <v>0.6174423224061212</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00272014740267053</v>
+        <v>0.0030708854258273</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7186504204501578</v>
+        <v>0.726002106082636</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01034337400084181</v>
+        <v>0.003244834761998364</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7941578245351895</v>
+        <v>0.7990191690583568</v>
       </c>
       <c r="H11" t="n">
-        <v>0.002736452075301647</v>
+        <v>0.004282248414761212</v>
       </c>
     </row>
     <row r="12">
@@ -1661,22 +1661,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.6961129238189814</v>
+        <v>0.6988039765596866</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002977506728804758</v>
+        <v>0.002659131549161819</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8585119116225874</v>
+        <v>0.8615033380914806</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01327603464997505</v>
+        <v>0.00581296462819832</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8578953727195844</v>
+        <v>0.8627971122524112</v>
       </c>
       <c r="H12" t="n">
-        <v>0.004877167516257776</v>
+        <v>0.003871608713380382</v>
       </c>
     </row>
     <row r="13">
@@ -1689,22 +1689,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3559205740098459</v>
+        <v>0.3608793729424563</v>
       </c>
       <c r="D13" t="n">
-        <v>0.005254827204152063</v>
+        <v>0.004436603493205957</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4845960108443845</v>
+        <v>0.4963845321855755</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02248264115555852</v>
+        <v>0.007571015790334614</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6096738981802139</v>
+        <v>0.6190986542873891</v>
       </c>
       <c r="H13" t="n">
-        <v>0.006911040006031913</v>
+        <v>0.008610623247737849</v>
       </c>
     </row>
     <row r="14">
@@ -1717,22 +1717,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.90786</v>
+        <v>0.9107000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002488573888796579</v>
+        <v>0.00141598022585064</v>
       </c>
       <c r="E14" t="n">
-        <v>0.99196</v>
+        <v>0.9921</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0008532291603080425</v>
+        <v>0.0004242640687119211</v>
       </c>
       <c r="G14" t="n">
-        <v>0.96912</v>
+        <v>0.9705</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001673917560694058</v>
+        <v>0.001027131929208705</v>
       </c>
     </row>
     <row r="15">
@@ -1745,22 +1745,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6961129238189814</v>
+        <v>0.6988039765596866</v>
       </c>
       <c r="D15" t="n">
-        <v>0.002977506728804783</v>
+        <v>0.00265913154916186</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8585119116225874</v>
+        <v>0.8615033380914806</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01327603464997501</v>
+        <v>0.005812964628198322</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8578953727195844</v>
+        <v>0.8627971122524112</v>
       </c>
       <c r="H15" t="n">
-        <v>0.004877167516257776</v>
+        <v>0.003871608713380382</v>
       </c>
     </row>
   </sheetData>
@@ -2277,10 +2277,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>467.4</v>
+        <v>467.6</v>
       </c>
       <c r="D2" t="n">
-        <v>1.673320053068151</v>
+        <v>3.911521443121589</v>
       </c>
       <c r="E2" t="n">
         <v>44.6</v>
@@ -2289,10 +2289,10 @@
         <v>1.140175425099138</v>
       </c>
       <c r="G2" t="n">
-        <v>210.4</v>
+        <v>209.6</v>
       </c>
       <c r="H2" t="n">
-        <v>1.341640786499874</v>
+        <v>2.190890230020664</v>
       </c>
     </row>
     <row r="3">
@@ -2305,22 +2305,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>713</v>
+        <v>715.8</v>
       </c>
       <c r="D3" t="n">
-        <v>10.22252415013044</v>
+        <v>10.10940156488009</v>
       </c>
       <c r="E3" t="n">
-        <v>1779</v>
+        <v>1778.4</v>
       </c>
       <c r="F3" t="n">
-        <v>3.937003937005906</v>
+        <v>4.33589667773576</v>
       </c>
       <c r="G3" t="n">
-        <v>1483.2</v>
+        <v>1484.2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.563705936241092</v>
+        <v>3.193743884534262</v>
       </c>
     </row>
     <row r="4">
@@ -2333,22 +2333,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>665</v>
+        <v>662.2</v>
       </c>
       <c r="D4" t="n">
-        <v>10.22252415013044</v>
+        <v>10.10940156488009</v>
       </c>
       <c r="E4" t="n">
-        <v>70</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>3.937003937005906</v>
+        <v>4.33589667773576</v>
       </c>
       <c r="G4" t="n">
-        <v>159.8</v>
+        <v>158.8</v>
       </c>
       <c r="H4" t="n">
-        <v>3.563705936241092</v>
+        <v>3.193743884534262</v>
       </c>
     </row>
     <row r="5">
@@ -2361,10 +2361,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>64.59999999999999</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>1.673320053068151</v>
+        <v>3.911521443121589</v>
       </c>
       <c r="E5" t="n">
         <v>16.4</v>
@@ -2373,10 +2373,10 @@
         <v>1.140175425099138</v>
       </c>
       <c r="G5" t="n">
-        <v>56.6</v>
+        <v>57.4</v>
       </c>
       <c r="H5" t="n">
-        <v>1.341640786499874</v>
+        <v>2.190890230020664</v>
       </c>
     </row>
     <row r="6">
@@ -2389,22 +2389,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6180104712041885</v>
+        <v>0.6195811518324608</v>
       </c>
       <c r="D6" t="n">
-        <v>0.005523498175875614</v>
+        <v>0.006300150348268613</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9547643979057593</v>
+        <v>0.9544502617801047</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001596644050468808</v>
+        <v>0.001923683044070583</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8867015706806283</v>
+        <v>0.8868062827225132</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002081110671659888</v>
+        <v>0.002575575680889794</v>
       </c>
     </row>
     <row r="7">
@@ -2417,22 +2417,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4127776957821098</v>
+        <v>0.4139008407939496</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003915689867733811</v>
+        <v>0.0048009083075128</v>
       </c>
       <c r="E7" t="n">
-        <v>0.389466070143202</v>
+        <v>0.3875206021992079</v>
       </c>
       <c r="F7" t="n">
-        <v>0.009440210360080425</v>
+        <v>0.01189091270167089</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5683785217097463</v>
+        <v>0.5689651683399892</v>
       </c>
       <c r="H7" t="n">
-        <v>0.005867777558935738</v>
+        <v>0.006897344330658164</v>
       </c>
     </row>
     <row r="8">
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8785714285714284</v>
+        <v>0.8789473684210527</v>
       </c>
       <c r="D8" t="n">
-        <v>0.003145338445616845</v>
+        <v>0.007352483915642082</v>
       </c>
       <c r="E8" t="n">
         <v>0.7311475409836066</v>
@@ -2457,10 +2457,10 @@
         <v>0.01869140041146126</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7880149812734082</v>
+        <v>0.7850187265917603</v>
       </c>
       <c r="H8" t="n">
-        <v>0.005024871859550101</v>
+        <v>0.008205581385845205</v>
       </c>
     </row>
     <row r="9">
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.5174200000000001</v>
+        <v>0.51944</v>
       </c>
       <c r="D9" t="n">
-        <v>0.007412624366578953</v>
+        <v>0.007313549070047999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9621600000000001</v>
+        <v>0.9618400000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00210190389884981</v>
+        <v>0.002319051530259741</v>
       </c>
       <c r="G9" t="n">
-        <v>0.90274</v>
+        <v>0.90334</v>
       </c>
       <c r="H9" t="n">
-        <v>0.002165178976435913</v>
+        <v>0.001946278500112424</v>
       </c>
     </row>
     <row r="10">
@@ -2501,22 +2501,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5616600924490782</v>
+        <v>0.5627769787489841</v>
       </c>
       <c r="D10" t="n">
-        <v>0.003480088690336656</v>
+        <v>0.00500046281998753</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5080344990766694</v>
+        <v>0.5063585214230381</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005648411012658422</v>
+        <v>0.008370868125292912</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6604018160824701</v>
+        <v>0.6597487152419792</v>
       </c>
       <c r="H10" t="n">
-        <v>0.004404011823930879</v>
+        <v>0.006478059381806465</v>
       </c>
     </row>
     <row r="11">
@@ -2529,22 +2529,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6115846374002821</v>
+        <v>0.6130436762340004</v>
       </c>
       <c r="D11" t="n">
-        <v>0.004569440516143384</v>
+        <v>0.005397077589307723</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7421630022334014</v>
+        <v>0.7412406286809747</v>
       </c>
       <c r="F11" t="n">
-        <v>0.003107057796086941</v>
+        <v>0.00456883839334121</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7962052178592393</v>
+        <v>0.7959295208268499</v>
       </c>
       <c r="H11" t="n">
-        <v>0.002767102909470593</v>
+        <v>0.003930601804455063</v>
       </c>
     </row>
     <row r="12">
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.6979939871449305</v>
+        <v>0.6991979222366511</v>
       </c>
       <c r="D12" t="n">
-        <v>0.004194692762949831</v>
+        <v>0.006023276329114618</v>
       </c>
       <c r="E12" t="n">
-        <v>0.846644619599429</v>
+        <v>0.8464823697346372</v>
       </c>
       <c r="F12" t="n">
-        <v>0.008476531665767896</v>
+        <v>0.008607425697517162</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8453769367718227</v>
+        <v>0.8441831307943586</v>
       </c>
       <c r="H12" t="n">
-        <v>0.002868685675314189</v>
+        <v>0.004797970244913124</v>
       </c>
     </row>
     <row r="13">
@@ -2585,22 +2585,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3613216171998787</v>
+        <v>0.363329277816655</v>
       </c>
       <c r="D13" t="n">
-        <v>0.007027333290078799</v>
+        <v>0.010624936790144</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5134098676702779</v>
+        <v>0.5119646200026529</v>
       </c>
       <c r="F13" t="n">
-        <v>0.006299664652976436</v>
+        <v>0.00901371309360301</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6059826548520719</v>
+        <v>0.6049991211850153</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00579045198565756</v>
+        <v>0.008734551306791885</v>
       </c>
     </row>
     <row r="14">
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9169</v>
+        <v>0.9174599999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002353720459187981</v>
+        <v>0.005024241236246541</v>
       </c>
       <c r="E14" t="n">
         <v>0.99086</v>
@@ -2625,10 +2625,10 @@
         <v>0.0006188699378706357</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9632400000000001</v>
+        <v>0.9627800000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008502940667792169</v>
+        <v>0.001434224529144576</v>
       </c>
     </row>
     <row r="15">
@@ -2641,22 +2641,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6979939871449305</v>
+        <v>0.6991979222366512</v>
       </c>
       <c r="D15" t="n">
-        <v>0.004194692762949834</v>
+        <v>0.0060232763291146</v>
       </c>
       <c r="E15" t="n">
-        <v>0.846644619599429</v>
+        <v>0.8464823697346372</v>
       </c>
       <c r="F15" t="n">
-        <v>0.008476531665767931</v>
+        <v>0.0086074256975172</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8453769367718227</v>
+        <v>0.8441831307943586</v>
       </c>
       <c r="H15" t="n">
-        <v>0.002868685675314218</v>
+        <v>0.004797970244913117</v>
       </c>
     </row>
   </sheetData>
@@ -2725,22 +2725,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>477.8</v>
+        <v>478.4</v>
       </c>
       <c r="D2" t="n">
-        <v>6.457553716385176</v>
+        <v>6.655824516917495</v>
       </c>
       <c r="E2" t="n">
-        <v>49.8</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>1.30384048104053</v>
+        <v>1.224744871391589</v>
       </c>
       <c r="G2" t="n">
         <v>235.6</v>
       </c>
       <c r="H2" t="n">
-        <v>7.63544366752843</v>
+        <v>7.829431652425352</v>
       </c>
     </row>
     <row r="3">
@@ -2753,22 +2753,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>735.6</v>
+        <v>734.8</v>
       </c>
       <c r="D3" t="n">
-        <v>41.54274906647368</v>
+        <v>38.83555072353165</v>
       </c>
       <c r="E3" t="n">
-        <v>1768.2</v>
+        <v>1770.8</v>
       </c>
       <c r="F3" t="n">
-        <v>15.61089363233252</v>
+        <v>13.5351394525509</v>
       </c>
       <c r="G3" t="n">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="H3" t="n">
-        <v>20.53046516764781</v>
+        <v>21.87464285422736</v>
       </c>
     </row>
     <row r="4">
@@ -2781,22 +2781,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>642.4</v>
+        <v>643.2</v>
       </c>
       <c r="D4" t="n">
-        <v>41.54274906647368</v>
+        <v>38.83555072353165</v>
       </c>
       <c r="E4" t="n">
-        <v>80.8</v>
+        <v>78.2</v>
       </c>
       <c r="F4" t="n">
-        <v>15.61089363233252</v>
+        <v>13.5351394525509</v>
       </c>
       <c r="G4" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H4" t="n">
-        <v>20.53046516764781</v>
+        <v>21.87464285422736</v>
       </c>
     </row>
     <row r="5">
@@ -2809,22 +2809,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>54.2</v>
+        <v>53.6</v>
       </c>
       <c r="D5" t="n">
-        <v>6.457553716385176</v>
+        <v>6.655824516917495</v>
       </c>
       <c r="E5" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="F5" t="n">
-        <v>1.30384048104053</v>
+        <v>1.224744871391589</v>
       </c>
       <c r="G5" t="n">
         <v>31.4</v>
       </c>
       <c r="H5" t="n">
-        <v>7.63544366752843</v>
+        <v>7.829431652425353</v>
       </c>
     </row>
     <row r="6">
@@ -2837,22 +2837,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6352879581151832</v>
+        <v>0.6351832460732985</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01864565434558857</v>
+        <v>0.01719957046234738</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9518324607329843</v>
+        <v>0.9532984293193717</v>
       </c>
       <c r="F6" t="n">
-        <v>0.007523616682303613</v>
+        <v>0.006532974139189161</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9003141361256544</v>
+        <v>0.9008376963350784</v>
       </c>
       <c r="H6" t="n">
-        <v>0.006902263245100316</v>
+        <v>0.008422650283639869</v>
       </c>
     </row>
     <row r="7">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4269471453933193</v>
+        <v>0.4268921630941381</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01235698534783796</v>
+        <v>0.0113077692864235</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3859676495334957</v>
+        <v>0.3936483763220844</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04540443629282512</v>
+        <v>0.03994053015372676</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5984338462191601</v>
+        <v>0.6001042919405445</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02449323681469976</v>
+        <v>0.02758206061186544</v>
       </c>
     </row>
     <row r="8">
@@ -2893,22 +2893,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8981203007518797</v>
+        <v>0.899248120300752</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01213825886538565</v>
+        <v>0.01251094834007047</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8163934426229508</v>
+        <v>0.8196721311475411</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02137443411541854</v>
+        <v>0.02007778477691132</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8823970037453183</v>
+        <v>0.8823970037453185</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02859716729411399</v>
+        <v>0.02932371405402753</v>
       </c>
     </row>
     <row r="9">
@@ -2921,22 +2921,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.5338200000000001</v>
+        <v>0.53322</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03017278575140189</v>
+        <v>0.02819081410672633</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9562999999999999</v>
+        <v>0.9577199999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.008425259639916144</v>
+        <v>0.007316556567129102</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9032199999999999</v>
+        <v>0.90384</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01250947640790773</v>
+        <v>0.01333165406091834</v>
       </c>
     </row>
     <row r="10">
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5785884934461955</v>
+        <v>0.5787902391068975</v>
       </c>
       <c r="D10" t="n">
-        <v>0.008362331439286018</v>
+        <v>0.007523334355796976</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5223288075330755</v>
+        <v>0.5304662247051402</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03204142873079693</v>
+        <v>0.02818015825416369</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7124702193467093</v>
+        <v>0.7136269859842432</v>
       </c>
       <c r="H10" t="n">
-        <v>0.007581309825294046</v>
+        <v>0.01264565582865892</v>
       </c>
     </row>
     <row r="11">
@@ -2977,22 +2977,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.628415057021573</v>
+        <v>0.6283916950258138</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01483553830240907</v>
+        <v>0.01364512845771383</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7484790945762737</v>
+        <v>0.7529436620265709</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0178293682090378</v>
+        <v>0.01566334422987619</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8260768610013169</v>
+        <v>0.8268207871176017</v>
       </c>
       <c r="H11" t="n">
-        <v>0.005824101606673091</v>
+        <v>0.008664463238521413</v>
       </c>
     </row>
     <row r="12">
@@ -3005,22 +3005,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.7159687135109182</v>
+        <v>0.7162423475233803</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0096855471602443</v>
+        <v>0.008734440259096194</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8863470728528491</v>
+        <v>0.8886894998625753</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00676862144556938</v>
+        <v>0.007063749135297922</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8928114050984657</v>
+        <v>0.8931157264618254</v>
       </c>
       <c r="H12" t="n">
-        <v>0.008312571145221629</v>
+        <v>0.0099571836433427</v>
       </c>
     </row>
     <row r="13">
@@ -3033,22 +3033,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.393495536460809</v>
+        <v>0.394071095715093</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01398177127208184</v>
+        <v>0.01250214903811268</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5407239492402309</v>
+        <v>0.548125774350678</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02709404464951409</v>
+        <v>0.02400452078385068</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6735389037773538</v>
+        <v>0.674772054674125</v>
       </c>
       <c r="H13" t="n">
-        <v>0.006704507339188976</v>
+        <v>0.01450682042023237</v>
       </c>
     </row>
     <row r="14">
@@ -3061,22 +3061,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.93154</v>
+        <v>0.9321999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.004503665174055457</v>
+        <v>0.004985980344927188</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9936999999999999</v>
+        <v>0.9938400000000002</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0006519202405202484</v>
+        <v>0.000654217089351817</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9793400000000002</v>
+        <v>0.9793800000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0.004650053763130068</v>
+        <v>0.004776190950956616</v>
       </c>
     </row>
     <row r="15">
@@ -3089,22 +3089,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.7159687135109181</v>
+        <v>0.7162423475233802</v>
       </c>
       <c r="D15" t="n">
-        <v>0.009685547160244282</v>
+        <v>0.008734440259096237</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8863470728528492</v>
+        <v>0.8886894998625753</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00676862144556939</v>
+        <v>0.007063749135297889</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8928114050984657</v>
+        <v>0.8931157264618254</v>
       </c>
       <c r="H15" t="n">
-        <v>0.008312571145221546</v>
+        <v>0.009957183643342667</v>
       </c>
     </row>
   </sheetData>
